--- a/Zad4/Zeszyt1.xlsx
+++ b/Zad4/Zeszyt1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamludwiczak/Projects/MPwI/Zad4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adaml\Documents\MPwI\Zad4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B1BF3C-B859-6A4E-9657-944D339C4D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC5FBB2-F0CD-401D-AF89-3856E3617EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{1E032093-64CD-2343-9178-80AA36EA356B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{1E032093-64CD-2343-9178-80AA36EA356B}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="dane_19" localSheetId="0">Arkusz1!$B$2:$B$72</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nr próbki</t>
   </si>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -291,9 +291,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -315,6 +312,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1079,6 +1080,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykres wartości standaryzowanych </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5234,49 +5260,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF294DE-8A5B-B94E-B842-35A8EFA49D1A}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="17">
         <f>AVERAGE(B2:B71)</f>
         <v>0.1901428571428572</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -5297,16 +5323,16 @@
         <f>NORMDIST(C2,$L$1,$L$6,TRUE)</f>
         <v>1.8909535030705509E-2</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="18">
         <f>MEDIAN(B2:B71)</f>
         <v>0.19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -5327,16 +5353,16 @@
         <f t="shared" ref="F3:F66" si="2">NORMDIST(C3,$L$1,$L$6,TRUE)</f>
         <v>1.8909535030705509E-2</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <f>MIN(B2:B71)</f>
         <v>0.186</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -5357,16 +5383,16 @@
         <f t="shared" si="2"/>
         <v>5.7569239416182652E-2</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <f>MAX(B2:B71)</f>
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -5387,15 +5413,15 @@
         <f t="shared" si="2"/>
         <v>5.7569239416182652E-2</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="18">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -5424,8 +5450,8 @@
         <v>1.9948173014721414E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="2">
@@ -5447,8 +5473,8 @@
         <v>5.7569239416182652E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -5470,8 +5496,8 @@
         <v>5.7569239416182652E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="2">
@@ -5493,8 +5519,8 @@
         <v>5.7569239416182652E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="2">
@@ -5516,8 +5542,8 @@
         <v>0.14136378598863047</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -5539,8 +5565,8 @@
         <v>0.14136378598863047</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="2">
@@ -5562,8 +5588,8 @@
         <v>0.14136378598863047</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="2">
@@ -5585,8 +5611,8 @@
         <v>0.14136378598863047</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="2">
@@ -5608,8 +5634,8 @@
         <v>0.14136378598863047</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="2">
@@ -5631,8 +5657,8 @@
         <v>0.14136378598863047</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="2">
@@ -5654,8 +5680,8 @@
         <v>0.28335173680619985</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="2">
@@ -5677,8 +5703,8 @@
         <v>0.28335173680619985</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="2">
@@ -5700,8 +5726,8 @@
         <v>0.28335173680619985</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="B19" s="2">
@@ -5723,8 +5749,8 @@
         <v>0.28335173680619985</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="2">
@@ -5746,8 +5772,8 @@
         <v>0.28335173680619985</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
       <c r="B21" s="2">
@@ -5769,8 +5795,8 @@
         <v>0.28335173680619985</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
       <c r="B22" s="2">
@@ -5792,8 +5818,8 @@
         <v>0.28335173680619985</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="B23" s="2">
@@ -5815,8 +5841,8 @@
         <v>0.28335173680619985</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="2">
@@ -5838,8 +5864,8 @@
         <v>0.28335173680619985</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="B25" s="2">
@@ -5861,8 +5887,8 @@
         <v>0.28335173680619985</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="2">
@@ -5884,8 +5910,8 @@
         <v>0.28335173680619985</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="2">
@@ -5907,8 +5933,8 @@
         <v>0.28335173680619985</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="B28" s="2">
@@ -5930,8 +5956,8 @@
         <v>0.47145448997660838</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
       <c r="B29" s="2">
@@ -5953,8 +5979,8 @@
         <v>0.47145448997660838</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="B30" s="2">
@@ -5976,8 +6002,8 @@
         <v>0.47145448997660838</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="2">
@@ -5999,8 +6025,8 @@
         <v>0.47145448997660838</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="B32" s="2">
@@ -6022,8 +6048,8 @@
         <v>0.47145448997660838</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
         <v>32</v>
       </c>
       <c r="B33" s="2">
@@ -6045,8 +6071,8 @@
         <v>0.47145448997660838</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
         <v>33</v>
       </c>
       <c r="B34" s="2">
@@ -6068,8 +6094,8 @@
         <v>0.47145448997660838</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>34</v>
       </c>
       <c r="B35" s="2">
@@ -6091,8 +6117,8 @@
         <v>0.47145448997660838</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
         <v>35</v>
       </c>
       <c r="B36" s="2">
@@ -6114,8 +6140,8 @@
         <v>0.47145448997660838</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
         <v>36</v>
       </c>
       <c r="B37" s="2">
@@ -6137,8 +6163,8 @@
         <v>0.47145448997660838</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
         <v>37</v>
       </c>
       <c r="B38" s="2">
@@ -6160,8 +6186,8 @@
         <v>0.47145448997660838</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
         <v>38</v>
       </c>
       <c r="B39" s="2">
@@ -6183,8 +6209,8 @@
         <v>0.47145448997660838</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
         <v>39</v>
       </c>
       <c r="B40" s="2">
@@ -6206,8 +6232,8 @@
         <v>0.47145448997660838</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
         <v>40</v>
       </c>
       <c r="B41" s="2">
@@ -6229,8 +6255,8 @@
         <v>0.47145448997660838</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
         <v>41</v>
       </c>
       <c r="B42" s="2">
@@ -6252,8 +6278,8 @@
         <v>0.66628756264928668</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
         <v>42</v>
       </c>
       <c r="B43" s="2">
@@ -6275,8 +6301,8 @@
         <v>0.66628756264928668</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
         <v>43</v>
       </c>
       <c r="B44" s="2">
@@ -6298,8 +6324,8 @@
         <v>0.66628756264928668</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
         <v>44</v>
       </c>
       <c r="B45" s="2">
@@ -6321,8 +6347,8 @@
         <v>0.66628756264928668</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
         <v>45</v>
       </c>
       <c r="B46" s="2">
@@ -6344,8 +6370,8 @@
         <v>0.66628756264928668</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
         <v>46</v>
       </c>
       <c r="B47" s="2">
@@ -6367,8 +6393,8 @@
         <v>0.66628756264928668</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
         <v>47</v>
       </c>
       <c r="B48" s="2">
@@ -6390,8 +6416,8 @@
         <v>0.66628756264928668</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
         <v>48</v>
       </c>
       <c r="B49" s="2">
@@ -6413,8 +6439,8 @@
         <v>0.66628756264928668</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="15">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
         <v>49</v>
       </c>
       <c r="B50" s="2">
@@ -6436,8 +6462,8 @@
         <v>0.66628756264928668</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
+    <row r="51" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14">
         <v>50</v>
       </c>
       <c r="B51" s="2">
@@ -6459,8 +6485,8 @@
         <v>0.66628756264928668</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
         <v>51</v>
       </c>
       <c r="B52" s="2">
@@ -6488,8 +6514,8 @@
         <v>-89.894999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
         <v>52</v>
       </c>
       <c r="B53" s="2">
@@ -6517,8 +6543,8 @@
         <v>472.78</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="15">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
         <v>53</v>
       </c>
       <c r="B54" s="2">
@@ -6546,16 +6572,11 @@
         <f>1/I53</f>
         <v>2.1151486949532554E-3</v>
       </c>
-      <c r="K54" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" s="4">
-        <f>STDEV(B50:B119)</f>
-        <v>1.7904266825613697E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
+      <c r="K54" s="19"/>
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="14">
         <v>54</v>
       </c>
       <c r="B55" s="2">
@@ -6583,16 +6604,11 @@
         <f>-(I52/I53)</f>
         <v>0.19014129193282289</v>
       </c>
-      <c r="K55" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L55" s="12">
-        <f>AVERAGE(B56:B125)</f>
-        <v>0.18968750000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="15">
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
         <v>55</v>
       </c>
       <c r="B56" s="2">
@@ -6614,8 +6630,8 @@
         <v>0.82406906234610811</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="15">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
         <v>56</v>
       </c>
       <c r="B57" s="2">
@@ -6637,8 +6653,8 @@
         <v>0.82406906234610811</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="15">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
         <v>57</v>
       </c>
       <c r="B58" s="2">
@@ -6660,8 +6676,8 @@
         <v>0.82406906234610811</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="15">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
         <v>58</v>
       </c>
       <c r="B59" s="2">
@@ -6683,8 +6699,8 @@
         <v>0.82406906234610811</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="15">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
         <v>59</v>
       </c>
       <c r="B60" s="2">
@@ -6706,8 +6722,8 @@
         <v>0.82406906234610811</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="15">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
         <v>60</v>
       </c>
       <c r="B61" s="2">
@@ -6729,8 +6745,8 @@
         <v>0.82406906234610811</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="15">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
         <v>61</v>
       </c>
       <c r="B62" s="2">
@@ -6752,8 +6768,8 @@
         <v>0.82406906234610811</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="15">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
         <v>62</v>
       </c>
       <c r="B63" s="2">
@@ -6775,8 +6791,8 @@
         <v>0.92396857314073522</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="15">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
         <v>63</v>
       </c>
       <c r="B64" s="2">
@@ -6798,8 +6814,8 @@
         <v>0.92396857314073522</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
         <v>64</v>
       </c>
       <c r="B65" s="2">
@@ -6821,8 +6837,8 @@
         <v>0.92396857314073522</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
         <v>65</v>
       </c>
       <c r="B66" s="2">
@@ -6844,8 +6860,8 @@
         <v>0.92396857314073522</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
         <v>66</v>
       </c>
       <c r="B67" s="2">
@@ -6867,8 +6883,8 @@
         <v>0.92396857314073522</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
         <v>67</v>
       </c>
       <c r="B68" s="2">
@@ -6890,8 +6906,8 @@
         <v>0.97341772984419561</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
         <v>68</v>
       </c>
       <c r="B69" s="2">
@@ -6913,8 +6929,8 @@
         <v>0.97341772984419561</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
         <v>69</v>
       </c>
       <c r="B70" s="2">
@@ -6936,21 +6952,21 @@
         <v>0.97341772984419561</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="15">
         <v>0.189</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="15">
         <v>0.19400000000000001</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="16">
         <f t="shared" si="3"/>
         <v>0.9859154929577465</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="16">
         <f t="shared" si="4"/>
         <v>2.1949244993050558</v>
       </c>
